--- a/Conocimiento/Sprints y Requisitos/Sprint 3/Gráficas pilotaje/Gráfica usuarios reales.xlsx
+++ b/Conocimiento/Sprints y Requisitos/Sprint 3/Gráficas pilotaje/Gráfica usuarios reales.xlsx
@@ -68,6 +68,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFC9908"/>
+      <color rgb="FFFCAF04"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,6 +129,15 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FC9908"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr/>
@@ -625,7 +641,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
